--- a/docs/新闻版块分类.xlsx
+++ b/docs/新闻版块分类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="A股新闻" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="港股新闻" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="1467">
   <si>
     <t>凤凰财经</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12389,6 +12388,923 @@
   </si>
   <si>
     <t>http://cn.nytimes.com/technology/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://stock.hexun.com/xsbyw/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新三板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票首页 新三板 新三板要闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://stock.10jqka.com.cn/xinsanban/sanban_list/index.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 股票 新三板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://roll.finance.sina.com.cn/finance/zq1/sbsc/index_1.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 财经 证券 三版市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sbsc.stock.cnfol.com/xsbyw/index.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 股票 三版 新三板要闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://finance.ifeng.com/stock/special/xinsanban/index.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰网 财经 股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yq.stcn.com/xsb/1.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 舆情频道 新三板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://stock.asiafinance.cn/list/list_sanb.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲财经 股票 三板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全景网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.p5w.net/stock/news/xsb/index.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新三板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 股票频道 新三板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国证券报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.xsbdzw.com/html/qyly/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新三板定增网 公司动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.xsbdzw.com/html/xwdt/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新三板定增网 新三板动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新三板在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sanban18.com/Industry/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 行业动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sanban18.com/news/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 公司新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21财经搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://stocks.21so.com/gongsi/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 三板 公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财界网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://stock.17ok.com/list.php?id=1110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财界网 新三板 新三板要闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三板富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://3bf.cc/home/ajax/channel_index?offset=0&amp;limit=30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gw.com.cn/news/news/pageNewsEstateMore_1.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大智慧新闻中心 新三板新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.qq.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技新闻</t>
+  </si>
+  <si>
+    <t>腾讯网 科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.qq.com/c/recodelist_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_Re/code</t>
+  </si>
+  <si>
+    <t>腾讯网 科技 独家外媒 Re/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bi.qq.com/c/bi2_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_BI</t>
+  </si>
+  <si>
+    <t>腾讯网 科技 独家外媒 BI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.qq.com/c/tnw_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_TNW</t>
+  </si>
+  <si>
+    <t>腾讯网 科技 独家外媒 TNW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://digi.tech.qq.com/c/yinkeji_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_Engadget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯网 科技 独家外媒 Engadget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://digi.tech.qq.com/c/theverge_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_TheVerge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯网 科技 独家外媒 The Verge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.qq.com/c/zmt_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_自媒体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯网 科技 自媒体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.qq.com/web/lCompany.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_大公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯网 科技 大公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.qq.com/web/newWy.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_新文娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯网 科技 新文娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.qq.com/c/dzsw_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_电商</t>
+  </si>
+  <si>
+    <t>腾讯网 科技 电商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.qq.com/web/intelligent.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯网 科技 智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://digi.tech.qq.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_数码</t>
+  </si>
+  <si>
+    <t>腾讯网 科技 产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.qq.com/c/ydhl_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_移动互联</t>
+  </si>
+  <si>
+    <t>腾讯网 科技 移动互联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.qq.com/c/tx_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯网 科技 通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.qq.com/c/it_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_IT业界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯网 科技 IT业界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.qq.com/c/hlwdj_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯网 科技 金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.ifeng.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰网 科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.ifeng.com/listpage/800/0/1/rtlist.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_滚动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰网 chenxiceshi频道 科技滚动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.ifeng.com/listpage/803/1/list.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰网 科技 互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.ifeng.com/listpage/26333/1/list.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_车科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰网 科技 车科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.ifeng.com/listpage/26334/1/list.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_智能家庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰网 科技 智能家庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.sina.com.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪网 科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chuangye.sina.com.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_创业</t>
+  </si>
+  <si>
+    <t>新浪网 科技 创业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.sina.com.cn/internet/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_互联网</t>
+  </si>
+  <si>
+    <t>新浪网 科技 产业 互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前瞻网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.qianzhan.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前瞻网 科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.china.com.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国网 科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.tech.china.com.cn/news/my.php?cname=科技&amp;p=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_原创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国网 科技 原创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.tech.china.com.cn/news/column.php?cname=互联网&amp;p=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国网 科技 互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.tech.china.com.cn/news/column.php?cname=IT业界&amp;p=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_IT业界</t>
+  </si>
+  <si>
+    <t>中国网 科技 IT业界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.tech.china.com.cn/news/column.php?cname=通信&amp;p=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_通信</t>
+  </si>
+  <si>
+    <t>中国网 科技 通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.tech.china.com.cn/news/column.php?cname=家电&amp;p=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_家电</t>
+  </si>
+  <si>
+    <t>中国网 科技 家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.tech.china.com.cn/news/column.php?cname=创业&amp;p=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国网 科技 创投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.tech.china.com.cn/news/live.php?channel=数码&amp;p=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国网 科技 数码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.tech.china.com.cn/news/live.php?channel=科技&amp;p=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_滚动</t>
+  </si>
+  <si>
+    <t>中国网 科技 滚动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.163.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.163.com/chuangclub/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_创业Club</t>
+  </si>
+  <si>
+    <t>首页 科技 创业Club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.163.com/vr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_VR</t>
+  </si>
+  <si>
+    <t>首页 科技 VR进化论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.163.com/internet/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 科技 移动互联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.163.com/telecom/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 科技 通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tech.163.com/it/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 科技 IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://digi.163.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 科技 数码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://it.sohu.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐网 科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://it.sohu.com/internet.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐网 科技 互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://it.sohu.com/tele.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_手机</t>
+  </si>
+  <si>
+    <t>搜狐网 科技 手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://it.sohu.com/techchanpin/index.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_智能</t>
+  </si>
+  <si>
+    <t>搜狐网 科技 智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://it.sohu.com/shenghuo/index.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_电商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐网 科技 电商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://it.sohu.com/chuangye_2016/index.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_创投</t>
+  </si>
+  <si>
+    <t>搜狐网 科技 创投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.sohu.com/profile?xpt=a2VqaXF1YW5qaWFud2VuQHNvaHUuY29t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_公众平台</t>
+  </si>
+  <si>
+    <t>搜狐公众平台 搜狐科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36氪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://36kr.com/api/info-flow/main_site/posts?column_id=&amp;b_id=5050227&amp;per_page=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 创投咨询 最新文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://36kr.com/api/post?column_id=67&amp;b_id=&amp;per_page=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_早期项目</t>
+  </si>
+  <si>
+    <t>首页 创投咨询 早期项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://36kr.com/api/post?column_id=68&amp;b_id=&amp;per_page=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_B轮后</t>
+  </si>
+  <si>
+    <t>http://36kr.com/api/post?column_id=23&amp;b_id=&amp;per_page=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_大公司</t>
+  </si>
+  <si>
+    <t>首页 创投咨询 明星公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://36kr.com/api/post?column_id=69&amp;b_id=&amp;per_page=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_资本</t>
+  </si>
+  <si>
+    <t>http://36kr.com/api/post?column_id=70&amp;b_id=&amp;per_page=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_深度</t>
+  </si>
+  <si>
+    <t>首页 创投咨询 深度报道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://36kr.com/api/post?column_id=71&amp;b_id=5046510&amp;per_page=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_研究</t>
+  </si>
+  <si>
+    <t>首页 创投咨询 行业研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechCrunch 中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://techcrunch.cn/新闻/1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://techcrunch.cn/startups/1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 新闻 创业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://techcrunch.cn/venture/1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 新闻 投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://techcrunch.cn/gadgets/1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_硬件</t>
+  </si>
+  <si>
+    <t>首页 新闻 硬件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://techcrunch.cn/mobile/1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 新闻 移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://techcrunch.cn/social/1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_社交</t>
+  </si>
+  <si>
+    <t>首页 新闻 社交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://techcrunch.cn/enterprise/1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_企业</t>
+  </si>
+  <si>
+    <t>首页 新闻 企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://techcrunch.cn/opinion/1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_观点</t>
+  </si>
+  <si>
+    <t>首页 新闻 观点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷锋网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.leiphone.com/page/1#lph-pageList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.leiphone.com/recommend/index/id/57?page=1#lph-pageList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_金融</t>
+  </si>
+  <si>
+    <t>首页 Fintech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.leiphone.com/recommend/index/id/55?page=1#lph-pageList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技_新智驾</t>
+  </si>
+  <si>
+    <t>首页 智能驾驶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国稀土学会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.rareearthinfo.com/scienceinformation/kejizixun/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀土咨询 科技信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ofweek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ofweek.com/CATListNew-73000-0-1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页 技术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12938,7 +13854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A414" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D348" sqref="D348"/>
     </sheetView>
   </sheetViews>
@@ -19669,7 +20585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -20657,26 +21573,1210 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B12" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B16" r:id="rId8"/>
+    <hyperlink ref="B18" r:id="rId9"/>
+    <hyperlink ref="B19" r:id="rId10"/>
+    <hyperlink ref="B21" r:id="rId11"/>
+    <hyperlink ref="B22" r:id="rId12"/>
+    <hyperlink ref="B24" r:id="rId13"/>
+    <hyperlink ref="B26" r:id="rId14"/>
+    <hyperlink ref="B28" r:id="rId15"/>
+    <hyperlink ref="B30" r:id="rId16"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="B25" r:id="rId20"/>
+    <hyperlink ref="B29" r:id="rId21"/>
+    <hyperlink ref="B32" r:id="rId22"/>
+    <hyperlink ref="B33" r:id="rId23"/>
+    <hyperlink ref="B34" r:id="rId24"/>
+    <hyperlink ref="B35" r:id="rId25"/>
+    <hyperlink ref="B36" r:id="rId26"/>
+    <hyperlink ref="B37" r:id="rId27"/>
+    <hyperlink ref="B38" r:id="rId28"/>
+    <hyperlink ref="B39" r:id="rId29"/>
+    <hyperlink ref="B41" r:id="rId30"/>
+    <hyperlink ref="B50" r:id="rId31"/>
+    <hyperlink ref="B51" r:id="rId32"/>
+    <hyperlink ref="B49" r:id="rId33"/>
+    <hyperlink ref="B55" r:id="rId34"/>
+    <hyperlink ref="B57" r:id="rId35"/>
+    <hyperlink ref="B58" r:id="rId36"/>
+    <hyperlink ref="B59" r:id="rId37"/>
+    <hyperlink ref="B61" r:id="rId38"/>
+    <hyperlink ref="B65" r:id="rId39"/>
+    <hyperlink ref="B66" r:id="rId40"/>
+    <hyperlink ref="B67" r:id="rId41"/>
+    <hyperlink ref="B68" r:id="rId42"/>
+    <hyperlink ref="B69" r:id="rId43"/>
+    <hyperlink ref="B70" r:id="rId44"/>
+    <hyperlink ref="B71" r:id="rId45"/>
+    <hyperlink ref="B72" r:id="rId46"/>
+    <hyperlink ref="B74" r:id="rId47" location="lph-pageList"/>
+    <hyperlink ref="B75" r:id="rId48" location="lph-pageList"/>
+    <hyperlink ref="B76" r:id="rId49" location="lph-pageList"/>
+    <hyperlink ref="B78" r:id="rId50"/>
+    <hyperlink ref="B80" r:id="rId51"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>